--- a/source_docs/ltp.xlsx
+++ b/source_docs/ltp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="21860" windowHeight="15100"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="29320" windowHeight="17300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alle LTP vragen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="234">
   <si>
     <t>Nieuwe vraagnummer id</t>
   </si>
@@ -675,9 +675,6 @@
   </si>
   <si>
     <t>Standaard LTP</t>
-  </si>
-  <si>
-    <t>Vraag id</t>
   </si>
   <si>
     <t>Vraag</t>
@@ -754,11 +751,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -833,14 +825,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
@@ -896,6 +880,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -938,90 +938,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="20">
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
     <cellStyle name="Standaard 2 2" xfId="2"/>
@@ -1356,9 +1380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2553,9 +2577,7 @@
       <c r="A85" s="1">
         <v>1100</v>
       </c>
-      <c r="B85" s="5">
-        <v>3462</v>
-      </c>
+      <c r="B85" s="5"/>
       <c r="C85" s="6">
         <v>3599</v>
       </c>
@@ -2573,9 +2595,7 @@
       <c r="A86" s="1">
         <v>1101</v>
       </c>
-      <c r="B86" s="5">
-        <v>3463</v>
-      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="6">
         <v>3600</v>
       </c>
@@ -2593,9 +2613,7 @@
       <c r="A87" s="1">
         <v>1102</v>
       </c>
-      <c r="B87" s="5">
-        <v>3464</v>
-      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="6">
         <v>3601</v>
       </c>
@@ -2613,9 +2631,7 @@
       <c r="A88" s="1">
         <v>1103</v>
       </c>
-      <c r="B88" s="5">
-        <v>3465</v>
-      </c>
+      <c r="B88" s="5"/>
       <c r="C88" s="6">
         <v>3602</v>
       </c>
@@ -2633,9 +2649,7 @@
       <c r="A89" s="1">
         <v>1104</v>
       </c>
-      <c r="B89" s="5">
-        <v>3466</v>
-      </c>
+      <c r="B89" s="5"/>
       <c r="C89" s="6">
         <v>3603</v>
       </c>
@@ -2653,9 +2667,7 @@
       <c r="A90" s="1">
         <v>1105</v>
       </c>
-      <c r="B90" s="5">
-        <v>3467</v>
-      </c>
+      <c r="B90" s="5"/>
       <c r="C90" s="6">
         <v>3604</v>
       </c>
@@ -2673,9 +2685,7 @@
       <c r="A91" s="1">
         <v>1106</v>
       </c>
-      <c r="B91" s="5">
-        <v>3468</v>
-      </c>
+      <c r="B91" s="5"/>
       <c r="C91" s="6">
         <v>3605</v>
       </c>
@@ -2693,9 +2703,7 @@
       <c r="A92" s="1">
         <v>1107</v>
       </c>
-      <c r="B92" s="5">
-        <v>3469</v>
-      </c>
+      <c r="B92" s="5"/>
       <c r="C92" s="6">
         <v>3606</v>
       </c>
@@ -2713,9 +2721,7 @@
       <c r="A93" s="1">
         <v>1108</v>
       </c>
-      <c r="B93" s="5">
-        <v>3470</v>
-      </c>
+      <c r="B93" s="5"/>
       <c r="C93" s="6">
         <v>3607</v>
       </c>
@@ -2733,9 +2739,7 @@
       <c r="A94" s="1">
         <v>1109</v>
       </c>
-      <c r="B94" s="5">
-        <v>3471</v>
-      </c>
+      <c r="B94" s="5"/>
       <c r="C94" s="6">
         <v>3608</v>
       </c>
@@ -2753,9 +2757,7 @@
       <c r="A95" s="1">
         <v>1110</v>
       </c>
-      <c r="B95" s="5">
-        <v>3472</v>
-      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="6">
         <v>3609</v>
       </c>
@@ -2773,9 +2775,7 @@
       <c r="A96" s="1">
         <v>1111</v>
       </c>
-      <c r="B96" s="5">
-        <v>3473</v>
-      </c>
+      <c r="B96" s="5"/>
       <c r="C96" s="6">
         <v>3610</v>
       </c>
@@ -2793,9 +2793,7 @@
       <c r="A97" s="1">
         <v>1112</v>
       </c>
-      <c r="B97" s="5">
-        <v>3474</v>
-      </c>
+      <c r="B97" s="5"/>
       <c r="C97" s="6">
         <v>3611</v>
       </c>
@@ -2813,9 +2811,7 @@
       <c r="A98" s="1">
         <v>1113</v>
       </c>
-      <c r="B98" s="5">
-        <v>3475</v>
-      </c>
+      <c r="B98" s="5"/>
       <c r="C98" s="6">
         <v>3612</v>
       </c>
@@ -4695,6 +4691,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4707,2496 +4704,2278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="17"/>
     <col min="2" max="2" width="116.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="18" t="s">
+      <c r="B1" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="B2" s="24" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="28" t="s">
-        <v>221</v>
-      </c>
       <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24">
-        <v>1001</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>222</v>
+      <c r="C3" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24">
-        <v>1002</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>222</v>
+      <c r="C4" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="29" t="s">
-        <v>223</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24">
-        <v>1003</v>
-      </c>
+      <c r="A7" s="33"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>222</v>
+      <c r="C7" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24">
-        <v>1004</v>
-      </c>
+      <c r="A8" s="33"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>222</v>
+      <c r="C8" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24">
-        <v>1005</v>
-      </c>
+      <c r="A9" s="33"/>
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>222</v>
+      <c r="C9" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24">
-        <v>1006</v>
-      </c>
+      <c r="A10" s="33"/>
       <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>222</v>
+      <c r="C10" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24">
-        <v>1007</v>
-      </c>
+      <c r="A11" s="33"/>
       <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>222</v>
+      <c r="C11" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="24">
-        <v>1008</v>
-      </c>
+      <c r="A12" s="33"/>
       <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>222</v>
+      <c r="C12" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24">
-        <v>1009</v>
-      </c>
+      <c r="A13" s="33"/>
       <c r="B13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>222</v>
+      <c r="C13" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24">
-        <v>1010</v>
-      </c>
+      <c r="A14" s="33"/>
       <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>222</v>
+      <c r="C14" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="24">
-        <v>1011</v>
-      </c>
+      <c r="A15" s="33"/>
       <c r="B15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>222</v>
+      <c r="C15" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="24">
-        <v>1012</v>
-      </c>
+      <c r="A16" s="33"/>
       <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>222</v>
+      <c r="C16" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24">
-        <v>1013</v>
-      </c>
+      <c r="A17" s="33"/>
       <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>222</v>
+      <c r="C17" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24">
-        <v>1014</v>
-      </c>
+      <c r="A18" s="33"/>
       <c r="B18" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24">
-        <v>1015</v>
-      </c>
+      <c r="A19" s="33"/>
       <c r="B19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>222</v>
+      <c r="C19" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24">
-        <v>1016</v>
-      </c>
+      <c r="A20" s="33"/>
       <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>222</v>
+      <c r="C20" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="24">
-        <v>1017</v>
-      </c>
+      <c r="A21" s="33"/>
       <c r="B21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>222</v>
+      <c r="C21" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="24">
-        <v>1018</v>
-      </c>
+      <c r="A22" s="33"/>
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>222</v>
+      <c r="C22" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="24"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="29" t="s">
-        <v>225</v>
+      <c r="B24" s="25" t="s">
+        <v>224</v>
       </c>
       <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="24">
-        <v>1019</v>
-      </c>
+      <c r="A25" s="33"/>
       <c r="B25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>222</v>
+      <c r="C25" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="24">
-        <v>1020</v>
-      </c>
+      <c r="A26" s="33"/>
       <c r="B26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>222</v>
+      <c r="C26" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="24">
-        <v>1021</v>
-      </c>
+      <c r="A27" s="33"/>
       <c r="B27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>222</v>
+      <c r="C27" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="24">
-        <v>1022</v>
-      </c>
+      <c r="A28" s="33"/>
       <c r="B28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>222</v>
+      <c r="C28" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="24">
-        <v>1023</v>
-      </c>
+      <c r="A29" s="33"/>
       <c r="B29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>222</v>
+      <c r="C29" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="24">
-        <v>1024</v>
-      </c>
+      <c r="A30" s="33"/>
       <c r="B30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>222</v>
+      <c r="C30" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="24">
-        <v>1025</v>
-      </c>
+      <c r="A31" s="33"/>
       <c r="B31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>222</v>
+      <c r="C31" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="24">
-        <v>1026</v>
-      </c>
+      <c r="A32" s="33"/>
       <c r="B32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>222</v>
+      <c r="C32" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="24">
-        <v>1027</v>
-      </c>
+      <c r="A33" s="33"/>
       <c r="B33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>222</v>
+      <c r="C33" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="24">
-        <v>1028</v>
-      </c>
+      <c r="A34" s="33"/>
       <c r="B34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>222</v>
+      <c r="C34" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="24">
-        <v>1029</v>
-      </c>
+      <c r="A35" s="33"/>
       <c r="B35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>222</v>
+      <c r="C35" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="24">
-        <v>1030</v>
-      </c>
+      <c r="A36" s="33"/>
       <c r="B36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>222</v>
+      <c r="C36" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="24">
-        <v>1031</v>
-      </c>
+      <c r="A37" s="33"/>
       <c r="B37" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>222</v>
+      <c r="C37" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="24">
-        <v>1032</v>
-      </c>
+      <c r="A38" s="33"/>
       <c r="B38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>222</v>
+      <c r="C38" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="24">
-        <v>1033</v>
-      </c>
+      <c r="A39" s="33"/>
       <c r="B39" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>222</v>
+      <c r="C39" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="24">
-        <v>1034</v>
-      </c>
+      <c r="A40" s="33"/>
       <c r="B40" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>222</v>
+      <c r="C40" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="24">
-        <v>1035</v>
-      </c>
+      <c r="A41" s="33"/>
       <c r="B41" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>222</v>
+      <c r="C41" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="24"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="29" t="s">
-        <v>226</v>
+      <c r="B43" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="24">
-        <v>1036</v>
-      </c>
+      <c r="A44" s="33"/>
       <c r="B44" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>222</v>
+      <c r="C44" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="24">
-        <v>1037</v>
-      </c>
+      <c r="A45" s="33"/>
       <c r="B45" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>222</v>
+      <c r="C45" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="24">
-        <v>1038</v>
-      </c>
+      <c r="A46" s="33"/>
       <c r="B46" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>222</v>
+      <c r="C46" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="24">
-        <v>1039</v>
-      </c>
+      <c r="A47" s="33"/>
       <c r="B47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="27" t="s">
-        <v>222</v>
+      <c r="C47" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="24">
-        <v>1040</v>
-      </c>
+      <c r="A48" s="33"/>
       <c r="B48" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>222</v>
+      <c r="C48" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="24">
-        <v>1041</v>
-      </c>
+      <c r="A49" s="33"/>
       <c r="B49" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>222</v>
+      <c r="C49" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="24">
-        <v>1042</v>
-      </c>
+      <c r="A50" s="33"/>
       <c r="B50" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>222</v>
+      <c r="C50" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="24">
-        <v>1043</v>
-      </c>
+      <c r="A51" s="33"/>
       <c r="B51" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>222</v>
+      <c r="C51" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="24">
-        <v>1044</v>
-      </c>
+      <c r="A52" s="33"/>
       <c r="B52" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>222</v>
+      <c r="C52" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="24">
-        <v>1045</v>
-      </c>
+      <c r="A53" s="33"/>
       <c r="B53" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>222</v>
+      <c r="C53" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="24">
-        <v>1046</v>
-      </c>
+      <c r="A54" s="33"/>
       <c r="B54" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>222</v>
+      <c r="C54" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="24">
-        <v>1047</v>
-      </c>
+      <c r="A55" s="33"/>
       <c r="B55" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>222</v>
+      <c r="C55" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="24">
-        <v>1048</v>
-      </c>
+      <c r="A56" s="33"/>
       <c r="B56" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>222</v>
+      <c r="C56" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="24"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="29" t="s">
-        <v>227</v>
+      <c r="B58" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="C58" s="20"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="24">
-        <v>1049</v>
-      </c>
+      <c r="A59" s="33"/>
       <c r="B59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="27" t="s">
-        <v>222</v>
+      <c r="C59" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="24">
-        <v>1050</v>
-      </c>
+      <c r="A60" s="33"/>
       <c r="B60" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="27" t="s">
-        <v>222</v>
+      <c r="C60" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="24">
-        <v>1051</v>
-      </c>
+      <c r="A61" s="33"/>
       <c r="B61" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="27" t="s">
-        <v>222</v>
+      <c r="C61" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="24">
-        <v>1052</v>
-      </c>
+      <c r="A62" s="33"/>
       <c r="B62" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>222</v>
+      <c r="C62" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="24">
-        <v>1053</v>
-      </c>
+      <c r="A63" s="33"/>
       <c r="B63" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="27" t="s">
-        <v>222</v>
+      <c r="C63" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="24">
-        <v>1054</v>
-      </c>
+      <c r="A64" s="33"/>
       <c r="B64" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="27" t="s">
-        <v>222</v>
+      <c r="C64" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="24">
-        <v>1055</v>
-      </c>
+      <c r="A65" s="33"/>
       <c r="B65" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="27" t="s">
-        <v>222</v>
+      <c r="C65" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="24">
-        <v>1056</v>
-      </c>
+      <c r="A66" s="33"/>
       <c r="B66" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="27" t="s">
-        <v>222</v>
+      <c r="C66" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="24">
-        <v>1057</v>
-      </c>
+      <c r="A67" s="33"/>
       <c r="B67" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="27" t="s">
-        <v>222</v>
+      <c r="C67" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="24">
-        <v>1058</v>
-      </c>
+      <c r="A68" s="33"/>
       <c r="B68" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="27" t="s">
-        <v>222</v>
+      <c r="C68" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="24">
-        <v>1059</v>
-      </c>
+      <c r="A69" s="33"/>
       <c r="B69" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>222</v>
+      <c r="C69" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="24"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="24"/>
-      <c r="B71" s="29" t="s">
-        <v>228</v>
+      <c r="B71" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="24">
-        <v>1060</v>
-      </c>
+      <c r="A72" s="33"/>
       <c r="B72" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="27" t="s">
-        <v>222</v>
+      <c r="C72" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="24">
-        <v>1061</v>
-      </c>
+      <c r="A73" s="33"/>
       <c r="B73" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="27" t="s">
-        <v>222</v>
+      <c r="C73" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="24">
-        <v>1062</v>
-      </c>
+      <c r="A74" s="33"/>
       <c r="B74" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="27" t="s">
-        <v>222</v>
+      <c r="C74" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="24">
-        <v>1063</v>
-      </c>
+      <c r="A75" s="33"/>
       <c r="B75" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="27" t="s">
-        <v>222</v>
+      <c r="C75" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="24">
-        <v>1064</v>
-      </c>
+      <c r="A76" s="33"/>
       <c r="B76" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="27" t="s">
-        <v>222</v>
+      <c r="C76" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="24">
-        <v>1065</v>
-      </c>
+      <c r="A77" s="33"/>
       <c r="B77" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="27" t="s">
-        <v>222</v>
+      <c r="C77" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="24"/>
       <c r="B78" s="19"/>
       <c r="C78" s="20"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="24"/>
-      <c r="B79" s="29" t="s">
-        <v>229</v>
+      <c r="B79" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="24">
-        <v>1066</v>
-      </c>
+      <c r="A80" s="33"/>
       <c r="B80" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="27" t="s">
-        <v>222</v>
+      <c r="C80" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="24">
-        <v>1067</v>
-      </c>
+      <c r="A81" s="33"/>
       <c r="B81" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="27" t="s">
-        <v>222</v>
+      <c r="C81" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="24">
-        <v>1068</v>
-      </c>
+      <c r="A82" s="33"/>
       <c r="B82" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="27" t="s">
-        <v>222</v>
+      <c r="C82" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="24">
-        <v>1069</v>
-      </c>
+      <c r="A83" s="33"/>
       <c r="B83" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="27" t="s">
-        <v>222</v>
+      <c r="C83" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="24">
-        <v>1070</v>
-      </c>
+      <c r="A84" s="33"/>
       <c r="B84" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="27" t="s">
-        <v>222</v>
+      <c r="C84" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="24">
-        <v>1071</v>
-      </c>
+      <c r="A85" s="33"/>
       <c r="B85" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="27" t="s">
-        <v>222</v>
+      <c r="C85" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="24">
-        <v>1072</v>
-      </c>
+      <c r="A86" s="33"/>
       <c r="B86" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>222</v>
+      <c r="C86" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="24">
-        <v>1073</v>
-      </c>
+      <c r="A87" s="33"/>
       <c r="B87" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="27" t="s">
-        <v>222</v>
+      <c r="C87" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="24">
-        <v>1074</v>
-      </c>
+      <c r="A88" s="33"/>
       <c r="B88" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="27" t="s">
-        <v>222</v>
+      <c r="C88" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="24">
-        <v>1075</v>
-      </c>
+      <c r="A89" s="33"/>
       <c r="B89" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="27" t="s">
-        <v>222</v>
+      <c r="C89" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="24">
-        <v>1076</v>
-      </c>
+      <c r="A90" s="33"/>
       <c r="B90" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="27" t="s">
-        <v>222</v>
+      <c r="C90" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="24">
-        <v>1077</v>
-      </c>
+      <c r="A91" s="33"/>
       <c r="B91" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="27" t="s">
-        <v>222</v>
+      <c r="C91" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="24">
-        <v>1078</v>
-      </c>
+      <c r="A92" s="33"/>
       <c r="B92" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="27" t="s">
-        <v>222</v>
+      <c r="C92" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="24">
-        <v>1079</v>
-      </c>
+      <c r="A93" s="33"/>
       <c r="B93" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="27" t="s">
-        <v>222</v>
+      <c r="C93" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="24">
-        <v>1080</v>
-      </c>
+      <c r="A94" s="33"/>
       <c r="B94" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C94" s="27" t="s">
-        <v>222</v>
+      <c r="C94" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="24">
-        <v>1081</v>
-      </c>
+      <c r="A95" s="33"/>
       <c r="B95" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="27" t="s">
-        <v>222</v>
+      <c r="C95" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="24">
-        <v>1082</v>
-      </c>
+      <c r="A96" s="33"/>
       <c r="B96" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="27" t="s">
-        <v>222</v>
+      <c r="C96" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="24">
-        <v>1083</v>
-      </c>
+      <c r="A97" s="33"/>
       <c r="B97" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="27" t="s">
-        <v>222</v>
+      <c r="C97" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="24"/>
       <c r="B98" s="19"/>
       <c r="C98" s="20"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="24"/>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="20"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="34"/>
+      <c r="B100" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="34"/>
+      <c r="B101" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="34"/>
+      <c r="B102" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="34"/>
+      <c r="B103" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="34"/>
+      <c r="B104" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="34"/>
+      <c r="B105" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="34"/>
+      <c r="B106" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="34"/>
+      <c r="B107" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="34"/>
+      <c r="B108" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="34"/>
+      <c r="B109" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="34"/>
+      <c r="B110" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="34"/>
+      <c r="B111" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="34"/>
+      <c r="B112" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="34"/>
+      <c r="B113" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" s="28">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114" s="27"/>
+      <c r="C114" s="28"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C99" s="20"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="24">
-        <v>1100</v>
-      </c>
-      <c r="B100" s="31" t="s">
+      <c r="C115" s="28"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="35">
+        <v>3650</v>
+      </c>
+      <c r="B116" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="24">
-        <v>1101</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="24">
-        <v>1102</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="24">
-        <v>1103</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="24">
-        <v>1104</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="24">
-        <v>1105</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="24">
-        <v>1106</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="24">
-        <v>1107</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="24">
-        <v>1108</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="24">
-        <v>1109</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="24">
-        <v>1110</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C110" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="24">
-        <v>1111</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="24">
-        <v>1112</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="24">
-        <v>1113</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="32">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="32"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="24"/>
-      <c r="B115" s="30" t="s">
+      <c r="C116" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="35">
+        <v>3651</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="35">
+        <v>3652</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="35">
+        <v>3653</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="35">
+        <v>3654</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="35">
+        <v>3655</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="35">
+        <v>3656</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="35">
+        <v>3657</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="35">
+        <v>3658</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="35">
+        <v>3659</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="35">
+        <v>3660</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="35">
+        <v>3661</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="35">
+        <v>3662</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="35">
+        <v>3663</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="35">
+        <v>3664</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="35">
+        <v>3665</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="35">
+        <v>3666</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="35">
+        <v>3667</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="35">
+        <v>3668</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="35">
+        <v>3669</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="35">
+        <v>3670</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="35">
+        <v>3671</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="35">
+        <v>3672</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="35">
+        <v>3673</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="35">
+        <v>3674</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="35">
+        <v>3675</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="35">
+        <v>3676</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="35">
+        <v>3677</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="35">
+        <v>3678</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="35">
+        <v>3679</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="35">
+        <v>3680</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="35">
+        <v>3681</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="35">
+        <v>3682</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="35">
+        <v>3683</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C149" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="35">
+        <v>3684</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="35">
+        <v>3685</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C151" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="35">
+        <v>3686</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="35">
+        <v>3687</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C153" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="35">
+        <v>3688</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C154" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="35">
+        <v>3689</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="35">
+        <v>3690</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="35">
+        <v>3691</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="35">
+        <v>3692</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="35">
+        <v>3693</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="35">
+        <v>3694</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="35">
+        <v>3695</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="35">
+        <v>3696</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="35">
+        <v>3697</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="35">
+        <v>3698</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="35">
+        <v>3699</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="35">
+        <v>3700</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="35">
+        <v>3701</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="35">
+        <v>3702</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C168" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="35">
+        <v>3703</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C169" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="35">
+        <v>3704</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C170" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="B171" s="29"/>
+      <c r="C171" s="30"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="B172" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C115" s="32"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="25">
-        <v>1140</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="25">
-        <v>1141</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="25">
-        <v>1142</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C118" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="25">
-        <v>1143</v>
-      </c>
-      <c r="B119" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C119" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="25">
-        <v>1144</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="25">
-        <v>1145</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C121" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="25">
-        <v>1146</v>
-      </c>
-      <c r="B122" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="25">
-        <v>1147</v>
-      </c>
-      <c r="B123" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C123" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="25">
-        <v>1148</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C124" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="25">
-        <v>1149</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C125" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="25">
-        <v>1150</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="25">
-        <v>1151</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="25">
-        <v>1152</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C128" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="25">
-        <v>1153</v>
-      </c>
-      <c r="B129" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C129" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="25">
-        <v>1154</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C130" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="25">
-        <v>1155</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="25">
-        <v>1156</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C132" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="25">
-        <v>1157</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C133" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="25">
-        <v>1158</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C134" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="25">
-        <v>1159</v>
-      </c>
-      <c r="B135" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C135" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="25">
-        <v>1160</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C136" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="25">
-        <v>1161</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C137" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="25">
-        <v>1162</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="25">
-        <v>1163</v>
-      </c>
-      <c r="B139" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="25">
-        <v>1164</v>
-      </c>
-      <c r="B140" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="25">
-        <v>1165</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C141" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="25">
-        <v>1166</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C142" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="25">
-        <v>1167</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="25">
-        <v>1168</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C144" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="25">
-        <v>1169</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C145" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="25">
-        <v>1170</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C146" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="25">
-        <v>1171</v>
-      </c>
-      <c r="B147" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="25">
-        <v>1172</v>
-      </c>
-      <c r="B148" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C148" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="25">
-        <v>1173</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C149" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="25">
-        <v>1174</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C150" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="25">
-        <v>1175</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C151" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="25">
-        <v>1176</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C152" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="25">
-        <v>1177</v>
-      </c>
-      <c r="B153" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C153" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="25">
-        <v>1178</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C154" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="25">
-        <v>1179</v>
-      </c>
-      <c r="B155" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C155" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="25">
-        <v>1180</v>
-      </c>
-      <c r="B156" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C156" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="25">
-        <v>1181</v>
-      </c>
-      <c r="B157" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C157" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="25">
-        <v>1182</v>
-      </c>
-      <c r="B158" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C158" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="25">
-        <v>1183</v>
-      </c>
-      <c r="B159" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C159" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="25">
-        <v>1184</v>
-      </c>
-      <c r="B160" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C160" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="25">
-        <v>1185</v>
-      </c>
-      <c r="B161" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C161" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="25">
-        <v>1186</v>
-      </c>
-      <c r="B162" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="25">
-        <v>1187</v>
-      </c>
-      <c r="B163" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C163" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="25">
-        <v>1188</v>
-      </c>
-      <c r="B164" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C164" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="25">
-        <v>1189</v>
-      </c>
-      <c r="B165" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C165" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="25">
-        <v>1190</v>
-      </c>
-      <c r="B166" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C166" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="25">
-        <v>1191</v>
-      </c>
-      <c r="B167" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C167" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="25">
-        <v>1192</v>
-      </c>
-      <c r="B168" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C168" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="25">
-        <v>1193</v>
-      </c>
-      <c r="B169" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C169" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="25">
-        <v>1194</v>
-      </c>
-      <c r="B170" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C170" s="32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="24"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="34"/>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="24"/>
-      <c r="B172" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C172" s="34"/>
+      <c r="C172" s="30"/>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="26">
-        <v>1195</v>
-      </c>
-      <c r="B173" s="31" t="s">
+      <c r="A173" s="36">
+        <v>6165</v>
+      </c>
+      <c r="B173" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C173" s="32">
+      <c r="C173" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="26">
-        <v>1196</v>
-      </c>
-      <c r="B174" s="31" t="s">
+      <c r="A174" s="36">
+        <v>6166</v>
+      </c>
+      <c r="B174" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C174" s="32">
+      <c r="C174" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="26">
-        <v>1197</v>
-      </c>
-      <c r="B175" s="31" t="s">
+      <c r="A175" s="36">
+        <v>6167</v>
+      </c>
+      <c r="B175" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C175" s="32">
+      <c r="C175" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="26">
-        <v>1198</v>
-      </c>
-      <c r="B176" s="31" t="s">
+      <c r="A176" s="36">
+        <v>6168</v>
+      </c>
+      <c r="B176" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C176" s="32">
+      <c r="C176" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="26">
-        <v>1199</v>
-      </c>
-      <c r="B177" s="31" t="s">
+      <c r="A177" s="36">
+        <v>6169</v>
+      </c>
+      <c r="B177" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C177" s="32">
+      <c r="C177" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="26">
-        <v>1200</v>
-      </c>
-      <c r="B178" s="31" t="s">
+      <c r="A178" s="36">
+        <v>6170</v>
+      </c>
+      <c r="B178" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C178" s="32">
+      <c r="C178" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="26">
-        <v>1201</v>
-      </c>
-      <c r="B179" s="31" t="s">
+      <c r="A179" s="36">
+        <v>6171</v>
+      </c>
+      <c r="B179" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C179" s="32">
+      <c r="C179" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="26">
-        <v>1202</v>
-      </c>
-      <c r="B180" s="31" t="s">
+      <c r="A180" s="36">
+        <v>6172</v>
+      </c>
+      <c r="B180" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C180" s="32">
+      <c r="C180" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="26">
-        <v>1203</v>
-      </c>
-      <c r="B181" s="31" t="s">
+      <c r="A181" s="36">
+        <v>6173</v>
+      </c>
+      <c r="B181" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C181" s="32">
+      <c r="C181" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="26">
-        <v>1204</v>
-      </c>
-      <c r="B182" s="31" t="s">
+      <c r="A182" s="36">
+        <v>6174</v>
+      </c>
+      <c r="B182" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C182" s="32">
+      <c r="C182" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="26">
-        <v>1205</v>
-      </c>
-      <c r="B183" s="31" t="s">
+      <c r="A183" s="36">
+        <v>6175</v>
+      </c>
+      <c r="B183" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C183" s="32">
+      <c r="C183" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="26">
-        <v>1206</v>
-      </c>
-      <c r="B184" s="31" t="s">
+      <c r="A184" s="36">
+        <v>6176</v>
+      </c>
+      <c r="B184" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C184" s="32">
+      <c r="C184" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="26">
-        <v>1207</v>
-      </c>
-      <c r="B185" s="31" t="s">
+      <c r="A185" s="36">
+        <v>6177</v>
+      </c>
+      <c r="B185" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C185" s="32">
+      <c r="C185" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="26">
-        <v>1208</v>
-      </c>
-      <c r="B186" s="31" t="s">
+      <c r="A186" s="36">
+        <v>6178</v>
+      </c>
+      <c r="B186" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C186" s="32">
+      <c r="C186" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="26">
-        <v>1209</v>
-      </c>
-      <c r="B187" s="31" t="s">
+      <c r="A187" s="36">
+        <v>6179</v>
+      </c>
+      <c r="B187" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C187" s="32">
+      <c r="C187" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="26">
-        <v>1210</v>
-      </c>
-      <c r="B188" s="31" t="s">
+      <c r="A188" s="36">
+        <v>6180</v>
+      </c>
+      <c r="B188" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C188" s="32">
+      <c r="C188" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="26">
-        <v>1211</v>
-      </c>
-      <c r="B189" s="31" t="s">
+      <c r="A189" s="36">
+        <v>6181</v>
+      </c>
+      <c r="B189" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C189" s="32">
+      <c r="C189" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="26">
-        <v>1212</v>
-      </c>
-      <c r="B190" s="31" t="s">
+      <c r="A190" s="36">
+        <v>6182</v>
+      </c>
+      <c r="B190" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C190" s="32">
+      <c r="C190" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="26">
-        <v>1213</v>
-      </c>
-      <c r="B191" s="31" t="s">
+      <c r="A191" s="36">
+        <v>6183</v>
+      </c>
+      <c r="B191" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C191" s="32">
+      <c r="C191" s="28">
         <v>543</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="24"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="24"/>
-      <c r="B193" s="35" t="s">
+      <c r="B193" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C193" s="30"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="33">
+        <v>3272</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="33">
+        <v>3273</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C195" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="33">
+        <v>3274</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C196" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="33">
+        <v>3275</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C197" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="33">
+        <v>3276</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C198" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="33">
+        <v>3277</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="33">
+        <v>3278</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C200" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="33">
+        <v>3279</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C201" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="33">
+        <v>3280</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C202" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="33">
+        <v>3281</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C203" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="33">
+        <v>3282</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="33">
+        <v>3283</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C205" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="33">
+        <v>3284</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C206" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="33">
+        <v>3285</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C207" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="33">
+        <v>3286</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C208" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="33">
+        <v>3287</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="33">
+        <v>3288</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C210" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="33">
+        <v>3289</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C211" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="33">
+        <v>3290</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C212" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="33">
+        <v>3291</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C213" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="33">
+        <v>3292</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C214" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="33">
+        <v>3293</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C215" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="33">
+        <v>3294</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C216" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="33">
+        <v>3295</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C217" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="33">
+        <v>3296</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="33">
+        <v>3297</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C219" s="28">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="B220" s="29"/>
+      <c r="C220" s="30"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="B221" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C193" s="34"/>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="25">
-        <v>1114</v>
-      </c>
-      <c r="B194" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C194" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="25">
-        <v>1115</v>
-      </c>
-      <c r="B195" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C195" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="25">
-        <v>1116</v>
-      </c>
-      <c r="B196" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C196" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="25">
-        <v>1117</v>
-      </c>
-      <c r="B197" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C197" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="25">
-        <v>1118</v>
-      </c>
-      <c r="B198" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C198" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="25">
-        <v>1119</v>
-      </c>
-      <c r="B199" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C199" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="25">
-        <v>1120</v>
-      </c>
-      <c r="B200" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C200" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="25">
-        <v>1121</v>
-      </c>
-      <c r="B201" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C201" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="25">
-        <v>1122</v>
-      </c>
-      <c r="B202" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C202" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="25">
-        <v>1123</v>
-      </c>
-      <c r="B203" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C203" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="25">
-        <v>1124</v>
-      </c>
-      <c r="B204" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C204" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="25">
-        <v>1125</v>
-      </c>
-      <c r="B205" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C205" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="25">
-        <v>1126</v>
-      </c>
-      <c r="B206" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C206" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="25">
-        <v>1127</v>
-      </c>
-      <c r="B207" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C207" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="25">
-        <v>1128</v>
-      </c>
-      <c r="B208" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C208" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="25">
-        <v>1129</v>
-      </c>
-      <c r="B209" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C209" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="25">
-        <v>1130</v>
-      </c>
-      <c r="B210" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C210" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="25">
-        <v>1131</v>
-      </c>
-      <c r="B211" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C211" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="25">
-        <v>1132</v>
-      </c>
-      <c r="B212" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C212" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="25">
-        <v>1133</v>
-      </c>
-      <c r="B213" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C213" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="25">
-        <v>1134</v>
-      </c>
-      <c r="B214" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C214" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="25">
-        <v>1135</v>
-      </c>
-      <c r="B215" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C215" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="25">
-        <v>1136</v>
-      </c>
-      <c r="B216" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C216" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="25">
-        <v>1137</v>
-      </c>
-      <c r="B217" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C217" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="25">
-        <v>1138</v>
-      </c>
-      <c r="B218" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C218" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="25">
-        <v>1139</v>
-      </c>
-      <c r="B219" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C219" s="32">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="24"/>
-      <c r="B220" s="33"/>
-      <c r="C220" s="34"/>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="24"/>
-      <c r="B221" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="C221" s="34"/>
+      <c r="C221" s="30"/>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="25">
-        <v>1214</v>
-      </c>
-      <c r="B222" s="31" t="s">
+      <c r="A222" s="33">
+        <v>3927</v>
+      </c>
+      <c r="B222" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C222" s="36">
+      <c r="C222" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="25">
-        <v>1215</v>
-      </c>
-      <c r="B223" s="31" t="s">
+      <c r="A223" s="33">
+        <v>3928</v>
+      </c>
+      <c r="B223" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C223" s="36">
+      <c r="C223" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="25">
-        <v>1216</v>
-      </c>
-      <c r="B224" s="31" t="s">
+      <c r="A224" s="33">
+        <v>3929</v>
+      </c>
+      <c r="B224" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C224" s="36">
+      <c r="C224" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="25">
-        <v>1217</v>
-      </c>
-      <c r="B225" s="31" t="s">
+      <c r="A225" s="33">
+        <v>3930</v>
+      </c>
+      <c r="B225" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C225" s="36">
+      <c r="C225" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="25">
-        <v>1218</v>
-      </c>
-      <c r="B226" s="31" t="s">
+      <c r="A226" s="33">
+        <v>3931</v>
+      </c>
+      <c r="B226" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C226" s="36">
+      <c r="C226" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="25">
-        <v>1219</v>
-      </c>
-      <c r="B227" s="31" t="s">
+      <c r="A227" s="33">
+        <v>3932</v>
+      </c>
+      <c r="B227" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C227" s="36">
+      <c r="C227" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="25">
-        <v>1220</v>
-      </c>
-      <c r="B228" s="31" t="s">
+      <c r="A228" s="33">
+        <v>3933</v>
+      </c>
+      <c r="B228" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C228" s="36">
+      <c r="C228" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="25">
-        <v>1221</v>
-      </c>
-      <c r="B229" s="31" t="s">
+      <c r="A229" s="33">
+        <v>3934</v>
+      </c>
+      <c r="B229" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C229" s="36">
+      <c r="C229" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="25">
-        <v>1222</v>
-      </c>
-      <c r="B230" s="31" t="s">
+      <c r="A230" s="33">
+        <v>3935</v>
+      </c>
+      <c r="B230" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C230" s="36">
+      <c r="C230" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="25">
-        <v>1223</v>
-      </c>
-      <c r="B231" s="31" t="s">
+      <c r="A231" s="33">
+        <v>3936</v>
+      </c>
+      <c r="B231" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C231" s="36">
+      <c r="C231" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="25">
-        <v>1224</v>
-      </c>
-      <c r="B232" s="31" t="s">
+      <c r="A232" s="33">
+        <v>3937</v>
+      </c>
+      <c r="B232" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C232" s="36">
+      <c r="C232" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="25">
-        <v>1225</v>
-      </c>
-      <c r="B233" s="31" t="s">
+      <c r="A233" s="33">
+        <v>3938</v>
+      </c>
+      <c r="B233" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C233" s="36">
+      <c r="C233" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="25">
-        <v>1226</v>
-      </c>
-      <c r="B234" s="31" t="s">
+      <c r="A234" s="33">
+        <v>3939</v>
+      </c>
+      <c r="B234" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C234" s="36">
+      <c r="C234" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="25">
-        <v>1227</v>
-      </c>
-      <c r="B235" s="31" t="s">
+      <c r="A235" s="33">
+        <v>3940</v>
+      </c>
+      <c r="B235" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C235" s="36">
+      <c r="C235" s="32">
         <v>133</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="17"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
